--- a/aspnet-core/src/GB.Opera.HttpApi.Host/wwwroot/uploads/ImportOfficialIndicesSample.xlsx
+++ b/aspnet-core/src/GB.Opera.HttpApi.Host/wwwroot/uploads/ImportOfficialIndicesSample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mitco\GB.Opera\angular\src\assets\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1D8A5-C9EA-4D54-ACA1-F7554E64D4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905FC02B-EABB-4CB9-9C55-E94853488ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72019A12-3955-4FC5-9318-9A7C9E925466}"/>
   </bookViews>
@@ -1257,7 +1257,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="14">
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="D2" s="8">
         <v>23.4</v>
@@ -1356,7 +1356,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="14">
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="D3" s="8">
         <v>20.8</v>
@@ -1391,7 +1391,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="14">
-        <v>45574</v>
+        <v>45575</v>
       </c>
       <c r="D4" s="8">
         <v>62.2</v>
@@ -4602,7 +4602,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D2:G7 G8:J110 I115:J353">
+  <conditionalFormatting sqref="I115:J353 G8:J110 D2:G7">
     <cfRule type="cellIs" dxfId="1" priority="9999" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
